--- a/data/trans_bre/P41C_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P41C_R-Edad-trans_bre.xlsx
@@ -591,7 +591,7 @@
         <v>0.6754848348836197</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.1658889917156846</v>
+        <v>0.1658889917156845</v>
       </c>
     </row>
     <row r="8">
@@ -602,10 +602,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-8.27064451398865</v>
+        <v>-7.562817012266182</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8357068068671806</v>
+        <v>-0.9357510041149373</v>
       </c>
     </row>
     <row r="9">
@@ -616,10 +616,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.394868929406329</v>
+        <v>5.414030362908103</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>5.568004806458751</v>
+        <v>6.009288697311768</v>
       </c>
     </row>
     <row r="10">
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1974793264896732</v>
+        <v>0.1974793264896746</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.03919746544440648</v>
+        <v>0.03919746544440677</v>
       </c>
     </row>
     <row r="11">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.122139894566065</v>
+        <v>-3.966649687651416</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.5678722097724965</v>
+        <v>-0.5375071191597713</v>
       </c>
     </row>
     <row r="12">
@@ -662,10 +662,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.715028819364915</v>
+        <v>3.757448462007245</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>1.495897734647005</v>
+        <v>1.333895633517892</v>
       </c>
     </row>
     <row r="13">
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>-0.7570053956316227</v>
+        <v>-0.7570053956316221</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.1549141721141105</v>
+        <v>-0.1549141721141104</v>
       </c>
     </row>
     <row r="14">
@@ -694,10 +694,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.804689695487061</v>
+        <v>-4.686243841122022</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6203259962923167</v>
+        <v>-0.6199584625796498</v>
       </c>
     </row>
     <row r="15">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.328534759914944</v>
+        <v>2.449450923139173</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9834386164818584</v>
+        <v>1.050836716086535</v>
       </c>
     </row>
     <row r="16">
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-2.386177495061912</v>
+        <v>-2.548850150260916</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.425399835735401</v>
+        <v>-0.458802411108093</v>
       </c>
     </row>
     <row r="21">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.888763937740487</v>
+        <v>1.924210761454697</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6535207292173179</v>
+        <v>0.6505430891126508</v>
       </c>
     </row>
     <row r="22">
